--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/564614f0f810941a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{83E832AE-8F33-4C34-9B27-A94C29E3112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFD5D797-FE1C-47D6-A538-532A6992D0CB}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{83E832AE-8F33-4C34-9B27-A94C29E3112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4D135C3-B1EC-47B3-B814-73D764FFD6B5}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9BFDBB26-3491-435C-9698-5D026AC59CDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9BFDBB26-3491-435C-9698-5D026AC59CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="154">
   <si>
     <t>Part Number</t>
   </si>
@@ -473,6 +473,15 @@
   </si>
   <si>
     <t>MCU header to connect to PCB</t>
+  </si>
+  <si>
+    <t>4880G</t>
+  </si>
+  <si>
+    <t>Q1 Heatsink Mounting Kit</t>
+  </si>
+  <si>
+    <t>Mounting kit for heatsink for MOSFET</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1002,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1002,7 +1011,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1049,25 +1057,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF999999"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF999999"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FF999999"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1080,11 +1070,15 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}" name="Table2" displayName="Table2" ref="A1:G30" totalsRowShown="0">
-  <autoFilter ref="A1:G30" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}" name="Table2" displayName="Table2" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4D9E5991-4F4F-4B3B-BF0F-0D571A2BD9D1}" name="Part Number" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{4D9E5991-4F4F-4B3B-BF0F-0D571A2BD9D1}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{1F6573D8-27BC-4892-8D60-58E40AAA99A3}" name="Reference"/>
     <tableColumn id="3" xr3:uid="{665AA8D9-1407-4AED-8D2F-17024EE1FE90}" name="Value"/>
     <tableColumn id="12" xr3:uid="{60DC97D8-503E-4E11-AD28-D9903678635A}" name="Qty"/>
@@ -1413,16 +1407,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A769F287-C2A0-475F-BDBC-D89346065B3C}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="102.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="117" bestFit="1" customWidth="1"/>
@@ -1823,45 +1817,45 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
         <v>92</v>
@@ -1869,19 +1863,19 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
         <v>97</v>
@@ -1892,19 +1886,19 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
         <v>97</v>
@@ -1915,22 +1909,22 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G22" t="s">
         <v>92</v>
@@ -1938,22 +1932,22 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
         <v>92</v>
@@ -1961,22 +1955,22 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
         <v>92</v>
@@ -1984,56 +1978,56 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -2042,67 +2036,67 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
         <v>55</v>
       </c>
       <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>55</v>
+        <v>134</v>
+      </c>
+      <c r="G28" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" t="s">
-        <v>140</v>
+        <v>149</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -2111,50 +2105,74 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>146</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>144</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.digikey.ca/en/products/detail/tdk-corporation/CGA4J3X7R1H155K125AB/4931474?s=N4IgTCBcDaIMIHECCAWAUgZgBoHYBKAjABIECspA0gWKUgEIgC6AvkA" xr:uid="{3B099495-494B-4686-835B-C54F4E6BE6AE}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.digikey.ca/en/products/detail/vishay-sprague/TMCP1D105MTRF/10107433?s=N4IgTCBcDaICoFkDCAFAjAETQBgKwLgCUAxEAXQF8g" xr:uid="{BF535A1E-7D49-427A-901F-F83C2C6736D8}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.digikey.ca/en/products/detail/rubycon/100ZLH470MEFC16X31-5/3564548?s=N4IgTCBcDaIIwAYEC0AyAJALAdgQWQFEAxAYTgDYANAZjgDoBWEAXQF8g" xr:uid="{6ACD7AE3-A564-48CE-8C33-B4B504C91B0C}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.digikey.ca/en/products/detail/murata-electronics/GRM21BC72A105KE01L/6606093?s=N4IgTCBcDaIOICUCyYCMAhAwgdjAQVQAYBWAaQFFDUAZEAXQF8g" xr:uid="{F20041F3-2294-4755-9136-3B9FFB0843C2}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.digikey.ca/en/products/detail/murata-electronics/GRM31CC72A475KE11L/10229416?s=N4IgTCBcDaIOICUCyBmAjAYQwdjAQQBZsBWAaQFE00AZEAXQF8g" xr:uid="{A46EE1B4-CFF8-4923-8719-6E59AA8CC555}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.digikey.ca/en/products/detail/kemet/C0805C330K5GACTU/2212525?s=N4IgTCBcDaIMIAYAcCCscDMGEGlUHEBBOAFQFUQBdAXyA" xr:uid="{0AEFD2ED-1CAA-43A2-B59D-9FDF4CA66DDF}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.digikey.ca/en/products/detail/kyocera-avx/F951C106MPAAQ2/4004971?s=N4IgTCBcDaIGIE4CsBGAwigDANgLIAUBBQgRQgF0BfIA" xr:uid="{EF2DA86C-A131-4360-A49B-C98F4A3B1144}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.digikey.ca/en/products/detail/kemet/C0805C224K5RACTU/754753?s=N4IgTCBcDaIMIAYAcCCscxgCwGlUCUBBOAFQFUQBdAXyA" xr:uid="{D0CA7FF4-58E4-4959-983E-23E1A983EA37}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.digikey.ca/en/products/detail/murata-electronics/GRM21BR61E106KA73L/2334874?s=N4IgTCBcDaIOICUCyYCMAhBA2VBRVADFgNICCA7AMwAyIAugL5A" xr:uid="{56EF6BEF-497A-4497-A357-5EC385148A2B}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.digikey.ca/en/products/detail/shenzhen-slkormicro-semicon-co-ltd/SS310/21853081" xr:uid="{00830784-BB5D-4F60-B4AD-113112DA41C0}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.digikey.ca/en/products/detail/liteon/LTST-C150GKT/269216?s=N4IgTCBcDaIDIBUDKCC0BhAjAVgAwHEBpBEAXQF8g" xr:uid="{668C3F88-5AE4-4967-8804-0647F83D23F6}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://www.digikey.ca/en/products/result?s=N4IgTCBcDaIKoGUwEFkgLoF8g" xr:uid="{342E8105-57ED-417C-B3E0-56FAD147AFD6}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.digikey.ca/en/products/detail/mueller-electric-co/BU-P72930-2/9360365?s=N4IgTCBcDaIEIFUC0AFA7GAnAZgAxIgF0BfIA" xr:uid="{7C851ADA-ABC9-434C-B6EC-6CA95819E32F}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://www.digikey.ca/en/products/detail/murata-power-solutions-inc/1468507C/5798132?s=N4IgTCBcDaIIwBYBsAOArABgOwGEQF0BfIA" xr:uid="{538F8833-470E-4954-A443-E861BE6CBF6E}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://www.digikey.ca/en/products/detail/infineon-technologies/IRF540NPBF/811869?s=N4IgTCBcDaIJICUBiBWALABgHIAUBCSIAugL5A" xr:uid="{93F7EB98-FC94-4D6B-98A9-D8E6B8A749C1}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://www.digikey.ca/en/products/detail/boyd-laconia-llc/507302B00000G/5849?s=N4IgTCBcDaIKwAYDsBmBYBCDvYOIgF0BfIA" xr:uid="{6B100A30-6743-4436-B122-05A4D4D0C3B8}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://www.digikey.ca/en/products/detail/yageo/RC0805FR-0720KL/727720?s=N4IgTCBcDaIEoGEAMAOJBWAYnAtEg7GEgNIAyIAugL5A" xr:uid="{BA856E98-3958-4C45-9ABE-55323862B4B0}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805FT1K00/1760090?s=N4IgTCBcDaIEoFkDCAxADADjQVhQFQEYBpNNEAXQF8g" xr:uid="{BEC6027C-CD8D-47A0-8808-9572D1175A22}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805JT300R/1711975?s=N4IgTCBcDaIEoFkDCAxADADjQVgFIBUBmNNOEAXQF8g" xr:uid="{21492CAE-A8A5-490E-8080-E0C07A071FDB}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805FT120R/1712658?s=N4IgTCBcDaIEoFkDCAxADADjQVhQFQEYw04QBdAXyA" xr:uid="{79A43D62-6F31-40B4-9F28-FB39ECD19D77}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://www.digikey.ca/en/products/detail/yageo/RC0805FR-0751RL/728012?s=N4IgTCBcDaIEoGEAMAOJBWAYnAtEg7OgIxwAyIAugL5A" xr:uid="{0566F4C7-5F6C-4725-8AE3-BCD2C8CDE3E9}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://www.digikey.ca/en/products/detail/vishay-dale/RCS08056R80FKEA/5869033?s=N4IgTCBcDaIEoGEDKAGAHCgrANjhgYgNICiAgiALoC%2BQA" xr:uid="{55214EDD-A95F-4192-B0E6-CC398B112B18}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://www.digikey.ca/en/products/detail/panasonic-electronic-components/ERJ-P06J120V/525206?s=N4IgTCBcDaIKICUBSBaACgBgGxIIxgwDUQBdAXyA" xr:uid="{69AF1978-6184-410F-8E26-EE85A8EF1CF3}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://www.digikey.ca/en/products/detail/vishay-dale/RCP1206W50R0GEB/5481873?s=N4IgTCBcDaIEoGEAKBGMAGAbAdQKzrnQHEBRAIRAF0BfIA" xr:uid="{9A777EAF-DD9B-4DB9-9619-7878449722E2}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://www.digikey.ca/en/products/detail/texas-instruments/LM358DGKR/809740" xr:uid="{E703659A-3B72-4C15-99E1-4046E1010716}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://www.digikey.ca/en/products/detail/texas-instruments/LAUNCHXL-F28379D/7219341?s=N4IgTCBcDaIDIEECqA5AwgCQBpwLQDEwAOAZgHYBOAERAF0BfIA" xr:uid="{EFF9E7C6-A36C-4D0F-AB0D-95CB11211BE4}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://www.digikey.ca/en/products/detail/samtec-inc/TSW-110-07-F-D/2685964" xr:uid="{0068DD61-6648-4CE1-9FFB-A51FF3417149}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://www.digikey.ca/en/products/detail/texas-instruments/UCC5304DWVR/12328576?s=N4IgTCBcDaIKoGEEFYDMAGALAEQOoDUAlEAXQF8g" xr:uid="{901BDBB4-E838-47DF-B7A1-AAB40E9B3CEC}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://www.digikey.ca/en/products/detail/traco-power/TMV-0512SHI/9345215" xr:uid="{9C071562-1EBA-4E03-A96F-588764715741}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.digikey.ca/en/products/detail/tdk-corporation/CGA4J3X7R1H155K125AB/4931474?s=N4IgTCBcDaIMIHECCAWAUgZgBoHYBKAjABIECspA0gWKUgEIgC6AvkA" xr:uid="{C481E3EC-68B0-43A5-BA00-46E2D4F6E1FE}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.digikey.ca/en/products/detail/vishay-sprague/TMCP1D105MTRF/10107433?s=N4IgTCBcDaICoFkDCAFAjAETQBgKwLgCUAxEAXQF8g" xr:uid="{3A2B0FF4-7002-41CA-AE01-19ED1C5626A4}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.digikey.ca/en/products/detail/rubycon/100ZLH470MEFC16X31-5/3564548?s=N4IgTCBcDaIIwAYEC0AyAJALAdgQWQFEAxAYTgDYANAZjgDoBWEAXQF8g" xr:uid="{2FF5850D-98A0-477F-8549-B058C331C71B}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.digikey.ca/en/products/detail/murata-electronics/GRM21BC72A105KE01L/6606093?s=N4IgTCBcDaIOICUCyYCMAhAwgdjAQVQAYBWAaQFFDUAZEAXQF8g" xr:uid="{7BC651E0-CCB8-4B7B-AFF2-60A8084D181C}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.digikey.ca/en/products/detail/murata-electronics/GRM31CC72A475KE11L/10229416?s=N4IgTCBcDaIOICUCyBmAjAYQwdjAQQBZsBWAaQFE00AZEAXQF8g" xr:uid="{EDD2AA7B-FE08-4EC9-88DC-12E5C280720C}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.digikey.ca/en/products/detail/kemet/C0805C330K5GACTU/2212525?s=N4IgTCBcDaIMIAYAcCCscDMGEGlUHEBBOAFQFUQBdAXyA" xr:uid="{3A8DFC51-95A9-4030-9EDE-FC1B6F6DD073}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.digikey.ca/en/products/detail/kyocera-avx/F951C106MPAAQ2/4004971?s=N4IgTCBcDaIGIE4CsBGAwigDANgLIAUBBQgRQgF0BfIA" xr:uid="{DE973BC5-4A32-4E37-81DF-6852951E0CCB}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.digikey.ca/en/products/detail/kemet/C0805C224K5RACTU/754753?s=N4IgTCBcDaIMIAYAcCCscxgCwGlUCUBBOAFQFUQBdAXyA" xr:uid="{3A3A0D87-1B80-45A0-B83B-40E439B34372}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.digikey.ca/en/products/detail/murata-electronics/GRM21BR61E106KA73L/2334874?s=N4IgTCBcDaIOICUCyYCMAhBA2VBRVADFgNICCA7AMwAyIAugL5A" xr:uid="{26C7D63F-BC3B-4696-A585-8E16EDD2E655}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.digikey.ca/en/products/detail/shenzhen-slkormicro-semicon-co-ltd/SS310/21853081" xr:uid="{550A1BA9-C7C7-4072-921D-1F5A4A8E9485}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://www.digikey.ca/en/products/detail/liteon/LTST-C150GKT/269216?s=N4IgTCBcDaIDIBUDKCC0BhAjAVgAwHEBpBEAXQF8g" xr:uid="{5F0D77E7-E3A8-4310-8346-212E6EF52570}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://www.digikey.ca/en/products/result?s=N4IgTCBcDaIKoGUwEFkgLoF8g" xr:uid="{5F3B660B-8062-4F2A-B937-30BCD9941822}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://www.digikey.ca/en/products/detail/mueller-electric-co/BU-P72930-2/9360365?s=N4IgTCBcDaIEIFUC0AFA7GAnAZgAxIgF0BfIA" xr:uid="{FFA8BC90-BE0E-4059-A913-F1EE269318F7}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://www.digikey.ca/en/products/detail/murata-power-solutions-inc/1468507C/5798132?s=N4IgTCBcDaIIwBYBsAOArABgOwGEQF0BfIA" xr:uid="{F0B6560D-C7E0-4E04-8D81-DCAF8229DCD4}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://www.digikey.ca/en/products/detail/infineon-technologies/IRF540NPBF/811869?s=N4IgTCBcDaIJICUBiBWALABgHIAUBCSIAugL5A" xr:uid="{E0F8DE1A-DFC8-4339-B936-C123AA40364E}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www.digikey.ca/en/products/detail/boyd-laconia-llc/507302B00000G/5849?s=N4IgTCBcDaIKwAYDsBmBYBCDvYOIgF0BfIA" xr:uid="{D76A5E8A-306F-426E-8C58-8430CB9C2AC5}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://www.digikey.ca/en/products/detail/boyd-laconia-llc/4880G/1625654" xr:uid="{F9204EED-FFA6-4CC5-9AEC-BAF2DB79588D}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://www.digikey.ca/en/products/detail/yageo/RC0805FR-0720KL/727720?s=N4IgTCBcDaIEoGEAMAOJBWAYnAtEg7GEgNIAyIAugL5A" xr:uid="{3FCADED3-E365-4077-83AA-8CAF10DD9C9F}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805FT1K00/1760090?s=N4IgTCBcDaIEoFkDCAxADADjQVhQFQEYBpNNEAXQF8g" xr:uid="{6D8B6F95-02FA-4AF2-A46C-B2C3CA06B744}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805JT300R/1711975?s=N4IgTCBcDaIEoFkDCAxADADjQVgFIBUBmNNOEAXQF8g" xr:uid="{6DF4CE06-3803-49C6-8827-2DB211AFF524}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RMCF0805FT120R/1712658?s=N4IgTCBcDaIEoFkDCAxADADjQVhQFQEYw04QBdAXyA" xr:uid="{ABB1B581-BE4D-4EA3-B500-4A66CA92218C}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://www.digikey.ca/en/products/detail/yageo/RC0805FR-0751RL/728012?s=N4IgTCBcDaIEoGEAMAOJBWAYnAtEg7OgIxwAyIAugL5A" xr:uid="{681AF134-F7CC-4AA4-A0C3-9A2EE45F5BEE}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://www.digikey.ca/en/products/detail/vishay-dale/RCS08056R80FKEA/5869033?s=N4IgTCBcDaIEoGEDKAGAHCgrANjhgYgNICiAgiALoC%2BQA" xr:uid="{62B9AC63-FED4-4E79-B00C-4AAA51909DB4}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://www.digikey.ca/en/products/detail/panasonic-electronic-components/ERJ-P06J120V/525206?s=N4IgTCBcDaIKICUBSBaACgBgGxIIxgwDUQBdAXyA" xr:uid="{21F35914-2608-4798-B425-3DB882A0BF57}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://www.digikey.ca/en/products/detail/vishay-dale/RCP1206W50R0GEB/5481873?s=N4IgTCBcDaIEoGEAKBGMAGAbAdQKzrnQHEBRAIRAF0BfIA" xr:uid="{53370A88-55C6-4CEC-A5F8-4CB9ED8196C7}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://www.digikey.ca/en/products/detail/texas-instruments/LM358DGKR/809740" xr:uid="{540EB810-0555-4E2F-BAED-3FE6CDE27FB1}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://www.digikey.ca/en/products/detail/texas-instruments/LAUNCHXL-F28379D/7219341?s=N4IgTCBcDaIDIEECqA5AwgCQBpwLQDEwAOAZgHYBOAERAF0BfIA" xr:uid="{EFC0BB8F-D334-4B60-8B78-D8E667174E76}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://www.digikey.ca/en/products/detail/samtec-inc/TSW-110-07-F-D/2685964" xr:uid="{11841134-890B-44FD-B933-6CAE7D7E2266}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://www.digikey.ca/en/products/detail/texas-instruments/UCC5304DWVR/12328576?s=N4IgTCBcDaIKoGEEFYDMAGALAEQOoDUAlEAXQF8g" xr:uid="{39BA0D69-7E2F-4733-B1C6-0586401F7229}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://www.digikey.ca/en/products/detail/traco-power/TMV-0512SHI/9345215" xr:uid="{86AE2BFB-1E4B-4483-882E-0C33E2A12543}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/564614f0f810941a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/564614F0F810941A/Desktop/Power Electronics/Project/Preliminary Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{83E832AE-8F33-4C34-9B27-A94C29E3112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4D135C3-B1EC-47B3-B814-73D764FFD6B5}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{83E832AE-8F33-4C34-9B27-A94C29E3112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E17AC1BF-B7E8-4962-917C-C98A5EEDAE6E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9BFDBB26-3491-435C-9698-5D026AC59CDB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="156">
   <si>
     <t>Part Number</t>
   </si>
@@ -403,21 +403,12 @@
     <t>50 Ohms Â±2% 2.4W Chip Resistor 1206 (3216 Metric) Moisture Resistant Thick Film</t>
   </si>
   <si>
-    <t>LM358DGKR</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>https://www.ti.com/general/docs/suppproductinfo.tsp?distId=10&amp;gotoUrl=https%3A%2F%2Fwww.ti.com%2Flit%2Fgpn%2Flm358</t>
   </si>
   <si>
-    <t>Package_SO:VSSOP-8_3x3mm_P0.65mm</t>
-  </si>
-  <si>
-    <t>General Purpose Amplifier 2 Circuit 8-VSSOP</t>
-  </si>
-  <si>
     <t>LAUNCHXL-F28379D</t>
   </si>
   <si>
@@ -463,15 +454,6 @@
     <t>Isolated Module DC DC Converter 1 Output 12V 84mA 4.5V - 5.5V Input</t>
   </si>
   <si>
-    <t>TSW-110-07-F-D</t>
-  </si>
-  <si>
-    <t>U2 Pin Header</t>
-  </si>
-  <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/6129/tsw-xxx-xx-xxx-x-xx-xxx-mkt.pdf</t>
-  </si>
-  <si>
     <t>MCU header to connect to PCB</t>
   </si>
   <si>
@@ -482,6 +464,30 @@
   </si>
   <si>
     <t>Mounting kit for heatsink for MOSFET</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/61202021621.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mounting standoffs </t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/971100244.pdf</t>
+  </si>
+  <si>
+    <t>LM358AP</t>
+  </si>
+  <si>
+    <t>General Purpose Amplifier 2 Circuit 8-PDIP</t>
+  </si>
+  <si>
+    <t>LM358AP:DIP794W45P254L959H508Q8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2 Connection Header </t>
+  </si>
+  <si>
+    <t>PCB Standoffs</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1008,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1011,6 +1017,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1075,8 +1084,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}" name="Table2" displayName="Table2" ref="A1:G31" totalsRowShown="0">
-  <autoFilter ref="A1:G31" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}" name="Table2" displayName="Table2" ref="A1:G32" totalsRowShown="0">
+  <autoFilter ref="A1:G32" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4D9E5991-4F4F-4B3B-BF0F-0D571A2BD9D1}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{1F6573D8-27BC-4892-8D60-58E40AAA99A3}" name="Reference"/>
@@ -1407,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A769F287-C2A0-475F-BDBC-D89346065B3C}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,10 +1826,10 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -1829,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
         <v>86</v>
@@ -2024,10 +2033,10 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
         <v>127</v>
-      </c>
-      <c r="B27" t="s">
-        <v>128</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -2036,21 +2045,21 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
@@ -2059,21 +2068,21 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>147</v>
+      <c r="A29" s="2">
+        <v>61202021621</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>55</v>
@@ -2082,44 +2091,44 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>137</v>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>971100244</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" t="s">
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>
@@ -2128,13 +2137,36 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2164,15 +2196,16 @@
     <hyperlink ref="A24" r:id="rId23" display="https://www.digikey.ca/en/products/detail/vishay-dale/RCS08056R80FKEA/5869033?s=N4IgTCBcDaIEoGEDKAGAHCgrANjhgYgNICiAgiALoC%2BQA" xr:uid="{62B9AC63-FED4-4E79-B00C-4AAA51909DB4}"/>
     <hyperlink ref="A25" r:id="rId24" display="https://www.digikey.ca/en/products/detail/panasonic-electronic-components/ERJ-P06J120V/525206?s=N4IgTCBcDaIKICUBSBaACgBgGxIIxgwDUQBdAXyA" xr:uid="{21F35914-2608-4798-B425-3DB882A0BF57}"/>
     <hyperlink ref="A26" r:id="rId25" display="https://www.digikey.ca/en/products/detail/vishay-dale/RCP1206W50R0GEB/5481873?s=N4IgTCBcDaIEoGEAKBGMAGAbAdQKzrnQHEBRAIRAF0BfIA" xr:uid="{53370A88-55C6-4CEC-A5F8-4CB9ED8196C7}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://www.digikey.ca/en/products/detail/texas-instruments/LM358DGKR/809740" xr:uid="{540EB810-0555-4E2F-BAED-3FE6CDE27FB1}"/>
+    <hyperlink ref="A27" r:id="rId26" display="LM358DGKR" xr:uid="{540EB810-0555-4E2F-BAED-3FE6CDE27FB1}"/>
     <hyperlink ref="A28" r:id="rId27" display="https://www.digikey.ca/en/products/detail/texas-instruments/LAUNCHXL-F28379D/7219341?s=N4IgTCBcDaIDIEECqA5AwgCQBpwLQDEwAOAZgHYBOAERAF0BfIA" xr:uid="{EFC0BB8F-D334-4B60-8B78-D8E667174E76}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://www.digikey.ca/en/products/detail/samtec-inc/TSW-110-07-F-D/2685964" xr:uid="{11841134-890B-44FD-B933-6CAE7D7E2266}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://www.digikey.ca/en/products/detail/texas-instruments/UCC5304DWVR/12328576?s=N4IgTCBcDaIKoGEEFYDMAGALAEQOoDUAlEAXQF8g" xr:uid="{39BA0D69-7E2F-4733-B1C6-0586401F7229}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://www.digikey.ca/en/products/detail/traco-power/TMV-0512SHI/9345215" xr:uid="{86AE2BFB-1E4B-4483-882E-0C33E2A12543}"/>
+    <hyperlink ref="A31" r:id="rId28" display="https://www.digikey.ca/en/products/detail/texas-instruments/UCC5304DWVR/12328576?s=N4IgTCBcDaIKoGEEFYDMAGALAEQOoDUAlEAXQF8g" xr:uid="{39BA0D69-7E2F-4733-B1C6-0586401F7229}"/>
+    <hyperlink ref="A32" r:id="rId29" display="https://www.digikey.ca/en/products/detail/traco-power/TMV-0512SHI/9345215" xr:uid="{86AE2BFB-1E4B-4483-882E-0C33E2A12543}"/>
+    <hyperlink ref="A29" r:id="rId30" display="https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/61202021621/2060592" xr:uid="{C375AD83-88A0-4675-9A95-D1187E7B2DED}"/>
+    <hyperlink ref="A30" r:id="rId31" display="https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/971100244/9488622" xr:uid="{5570392F-25BA-47AD-91F9-C5A161F2A6A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/564614F0F810941A/Desktop/Power Electronics/Project/Preliminary Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{83E832AE-8F33-4C34-9B27-A94C29E3112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E17AC1BF-B7E8-4962-917C-C98A5EEDAE6E}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{83E832AE-8F33-4C34-9B27-A94C29E3112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29CB343-4C71-42B3-8F2B-145BD736155A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9BFDBB26-3491-435C-9698-5D026AC59CDB}"/>
   </bookViews>
@@ -253,9 +253,6 @@
     <t>https://search.murata.co.jp/Ceramy/image/img/P02A/kmp_1400.pdf</t>
   </si>
   <si>
-    <t>Inductor_THT:L_Radial_D24.4mm_P23.90mm_Murata_1400series</t>
-  </si>
-  <si>
     <t>FIXED IND 6.8MH 700MA 2.3 OHM TH</t>
   </si>
   <si>
@@ -488,6 +485,9 @@
   </si>
   <si>
     <t>PCB Standoffs</t>
+  </si>
+  <si>
+    <t>Inductor_THT:L_Radial_D24.4mm_P23.10mm_Murata_1400series</t>
   </si>
 </sst>
 </file>
@@ -1418,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A769F287-C2A0-475F-BDBC-D89346065B3C}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,21 +1769,21 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
         <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -1792,21 +1792,21 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
         <v>81</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
         <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -1815,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>55</v>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
         <v>145</v>
-      </c>
-      <c r="B18" t="s">
-        <v>146</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -1838,10 +1838,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>55</v>
@@ -1849,194 +1849,194 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
         <v>88</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
         <v>91</v>
-      </c>
-      <c r="G19" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
         <v>103</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
         <v>107</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" t="s">
         <v>91</v>
-      </c>
-      <c r="G23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>112</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
         <v>116</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>117</v>
-      </c>
-      <c r="C25" t="s">
-        <v>118</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
         <v>121</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>122</v>
-      </c>
-      <c r="C26" t="s">
-        <v>123</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -2045,21 +2045,21 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" t="s">
         <v>152</v>
-      </c>
-      <c r="F27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
         <v>129</v>
-      </c>
-      <c r="B28" t="s">
-        <v>130</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
@@ -2068,13 +2068,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
         <v>131</v>
-      </c>
-      <c r="G28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2082,7 +2082,7 @@
         <v>61202021621</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>55</v>
@@ -2091,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>55</v>
@@ -2105,7 +2105,7 @@
         <v>971100244</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>55</v>
@@ -2114,10 +2114,10 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" t="s">
         <v>149</v>
-      </c>
-      <c r="F30" t="s">
-        <v>150</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>55</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
         <v>134</v>
-      </c>
-      <c r="B31" t="s">
-        <v>135</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>
@@ -2137,21 +2137,21 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
         <v>136</v>
-      </c>
-      <c r="G31" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
         <v>139</v>
-      </c>
-      <c r="B32" t="s">
-        <v>140</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
@@ -2160,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
         <v>141</v>
-      </c>
-      <c r="G32" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/564614F0F810941A/Desktop/Power Electronics/Project/Preliminary Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{83E832AE-8F33-4C34-9B27-A94C29E3112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29CB343-4C71-42B3-8F2B-145BD736155A}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{83E832AE-8F33-4C34-9B27-A94C29E3112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50AB193D-75BB-460A-91B6-F1CE776E9B0A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9BFDBB26-3491-435C-9698-5D026AC59CDB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="159">
   <si>
     <t>Part Number</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Isolated Module DC DC Converter 1 Output 12V 84mA 4.5V - 5.5V Input</t>
   </si>
   <si>
-    <t>MCU header to connect to PCB</t>
-  </si>
-  <si>
     <t>4880G</t>
   </si>
   <si>
@@ -466,12 +463,6 @@
     <t>https://www.we-online.com/components/products/datasheet/61202021621.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Mounting standoffs </t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/971100244.pdf</t>
-  </si>
-  <si>
     <t>LM358AP</t>
   </si>
   <si>
@@ -488,6 +479,24 @@
   </si>
   <si>
     <t>Inductor_THT:L_Radial_D24.4mm_P23.10mm_Murata_1400series</t>
+  </si>
+  <si>
+    <t>Standoff nuts</t>
+  </si>
+  <si>
+    <t>M2.5x0.45 Hex Nut 0.197" (5.00mm) Steel</t>
+  </si>
+  <si>
+    <t>Hex Standoff Threaded M2.5 Brass 0.394" (10.00mm) Silver</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 20 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>https://www.keyelco.com/userAssets/file/M65p135.pdf</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/971100154.pdf</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1093,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}" name="Table2" displayName="Table2" ref="A1:G32" totalsRowShown="0">
-  <autoFilter ref="A1:G32" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}" name="Table2" displayName="Table2" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33" xr:uid="{C249635C-4FCC-4D9E-9E1B-38B198DCF1C0}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4D9E5991-4F4F-4B3B-BF0F-0D571A2BD9D1}" name="Part Number"/>
     <tableColumn id="2" xr3:uid="{1F6573D8-27BC-4892-8D60-58E40AAA99A3}" name="Reference"/>
@@ -1416,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A769F287-C2A0-475F-BDBC-D89346065B3C}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,7 +1784,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1826,10 +1835,10 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
         <v>144</v>
-      </c>
-      <c r="B18" t="s">
-        <v>145</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -1838,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -2033,7 +2042,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
         <v>126</v>
@@ -2045,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
         <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2082,7 +2091,7 @@
         <v>61202021621</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>55</v>
@@ -2091,10 +2100,10 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>55</v>
@@ -2102,10 +2111,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>971100244</v>
+        <v>971100154</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>55</v>
@@ -2114,44 +2123,44 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>133</v>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>4707</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" t="s">
-        <v>136</v>
+        <v>157</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
@@ -2160,12 +2169,35 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>142</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>140</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2198,14 +2230,15 @@
     <hyperlink ref="A26" r:id="rId25" display="https://www.digikey.ca/en/products/detail/vishay-dale/RCP1206W50R0GEB/5481873?s=N4IgTCBcDaIEoGEAKBGMAGAbAdQKzrnQHEBRAIRAF0BfIA" xr:uid="{53370A88-55C6-4CEC-A5F8-4CB9ED8196C7}"/>
     <hyperlink ref="A27" r:id="rId26" display="LM358DGKR" xr:uid="{540EB810-0555-4E2F-BAED-3FE6CDE27FB1}"/>
     <hyperlink ref="A28" r:id="rId27" display="https://www.digikey.ca/en/products/detail/texas-instruments/LAUNCHXL-F28379D/7219341?s=N4IgTCBcDaIDIEECqA5AwgCQBpwLQDEwAOAZgHYBOAERAF0BfIA" xr:uid="{EFC0BB8F-D334-4B60-8B78-D8E667174E76}"/>
-    <hyperlink ref="A31" r:id="rId28" display="https://www.digikey.ca/en/products/detail/texas-instruments/UCC5304DWVR/12328576?s=N4IgTCBcDaIKoGEEFYDMAGALAEQOoDUAlEAXQF8g" xr:uid="{39BA0D69-7E2F-4733-B1C6-0586401F7229}"/>
-    <hyperlink ref="A32" r:id="rId29" display="https://www.digikey.ca/en/products/detail/traco-power/TMV-0512SHI/9345215" xr:uid="{86AE2BFB-1E4B-4483-882E-0C33E2A12543}"/>
+    <hyperlink ref="A32" r:id="rId28" display="https://www.digikey.ca/en/products/detail/texas-instruments/UCC5304DWVR/12328576?s=N4IgTCBcDaIKoGEEFYDMAGALAEQOoDUAlEAXQF8g" xr:uid="{39BA0D69-7E2F-4733-B1C6-0586401F7229}"/>
+    <hyperlink ref="A33" r:id="rId29" display="https://www.digikey.ca/en/products/detail/traco-power/TMV-0512SHI/9345215" xr:uid="{86AE2BFB-1E4B-4483-882E-0C33E2A12543}"/>
     <hyperlink ref="A29" r:id="rId30" display="https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/61202021621/2060592" xr:uid="{C375AD83-88A0-4675-9A95-D1187E7B2DED}"/>
-    <hyperlink ref="A30" r:id="rId31" display="https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/971100244/9488622" xr:uid="{5570392F-25BA-47AD-91F9-C5A161F2A6A6}"/>
+    <hyperlink ref="A30" r:id="rId31" display="https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/971100154/9488621" xr:uid="{5570392F-25BA-47AD-91F9-C5A161F2A6A6}"/>
+    <hyperlink ref="A31" r:id="rId32" display="4707" xr:uid="{D708E35B-4A9A-4788-BE76-A99C46D3A2E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>